--- a/SEWS FFL MONTE CARLO.xlsx
+++ b/SEWS FFL MONTE CARLO.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\squit\OneDrive\Documents\projects\FFL_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\squit\OneDrive\Documents\projects\FFL_MonteCarlo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5166C5-CE56-4720-AB7A-93F8CE26B040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DD3B1E-AA73-45F9-80C3-577538CC1A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="48">
   <si>
     <t xml:space="preserve">Team </t>
   </si>
@@ -171,6 +172,12 @@
   </si>
   <si>
     <t>Owner</t>
+  </si>
+  <si>
+    <t>team_A</t>
+  </si>
+  <si>
+    <t>team_B</t>
   </si>
 </sst>
 </file>
@@ -669,11 +676,11 @@
       </c>
       <c r="K6" s="13">
         <f ca="1">F6+SUMIF($C$19:$C$144,C6,$F$19:$F$144)</f>
-        <v>1797.3037880745956</v>
+        <v>1737.2307046269611</v>
       </c>
       <c r="L6" s="14">
         <f ca="1">+I6+(K6/10000)</f>
-        <v>5.1797303788074593</v>
+        <v>5.173723070462696</v>
       </c>
       <c r="M6" s="12">
         <f ca="1">RANK(L6,$L$6:$L$15,0)</f>
@@ -709,27 +716,27 @@
       </c>
       <c r="I7" s="11">
         <f t="shared" ref="I7:I15" ca="1" si="1">D7+SUMIF($C$19:$C$144,C7,$G$19:$G$144)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J7" s="12">
         <f ca="1">13-I7</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K7" s="13">
         <f t="shared" ref="K7:K15" ca="1" si="2">F7+SUMIF($C$19:$C$144,C7,$F$19:$F$144)</f>
-        <v>1991.2663935867683</v>
+        <v>1849.1035731613645</v>
       </c>
       <c r="L7" s="14">
         <f t="shared" ref="L7:L15" ca="1" si="3">+I7+(K7/10000)</f>
-        <v>10.199126639358678</v>
+        <v>6.1849103573161361</v>
       </c>
       <c r="M7" s="12">
         <f t="shared" ref="M7:M15" ca="1" si="4">RANK(L7,$L$6:$L$15,0)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N7" s="12">
         <f t="shared" ref="N7:N15" ca="1" si="5">IF(M7&lt;7,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -757,23 +764,23 @@
       </c>
       <c r="I8" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="12">
         <f t="shared" ref="J8:J15" ca="1" si="6">13-I8</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K8" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>1634.9101911486882</v>
+        <v>1646.1458628077885</v>
       </c>
       <c r="L8" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1634910191148689</v>
+        <v>4.1646145862807789</v>
       </c>
       <c r="M8" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N8" s="12">
         <f t="shared" ca="1" si="5"/>
@@ -805,23 +812,23 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K9" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>1810.9263097197793</v>
+        <v>1907.5804911527828</v>
       </c>
       <c r="L9" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>6.1810926309719783</v>
+        <v>7.1907580491152778</v>
       </c>
       <c r="M9" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N9" s="12">
         <f t="shared" ca="1" si="5"/>
@@ -853,23 +860,23 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>1822.2730980694696</v>
+        <v>1859.717978233763</v>
       </c>
       <c r="L10" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>10.182227309806947</v>
+        <v>9.1859717978233757</v>
       </c>
       <c r="M10" s="12">
         <f ca="1">RANK(L10,$L$6:$L$15,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" s="12">
         <f t="shared" ca="1" si="5"/>
@@ -909,15 +916,15 @@
       </c>
       <c r="K11" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>1858.1388248602564</v>
+        <v>1753.2751060754824</v>
       </c>
       <c r="L11" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>7.185813882486026</v>
+        <v>7.1753275106075485</v>
       </c>
       <c r="M11" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N11" s="12">
         <f t="shared" ca="1" si="5"/>
@@ -949,23 +956,23 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K12" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>1940.718610716242</v>
+        <v>1851.9891971635736</v>
       </c>
       <c r="L12" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1940718610716239</v>
+        <v>7.185198919716357</v>
       </c>
       <c r="M12" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" s="12">
         <f t="shared" ca="1" si="5"/>
@@ -1005,15 +1012,15 @@
       </c>
       <c r="K13" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>1967.4562785060323</v>
+        <v>2069.6229009508193</v>
       </c>
       <c r="L13" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1967456278506035</v>
+        <v>8.2069622900950812</v>
       </c>
       <c r="M13" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" s="12">
         <f t="shared" ca="1" si="5"/>
@@ -1053,15 +1060,15 @@
       </c>
       <c r="K14" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>1811.5913399325232</v>
+        <v>1708.7901533739728</v>
       </c>
       <c r="L14" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1811591339932521</v>
+        <v>5.1708790153373974</v>
       </c>
       <c r="M14" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N14" s="12">
         <f t="shared" ca="1" si="5"/>
@@ -1093,27 +1100,27 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K15" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>1612.9803715171029</v>
+        <v>1862.8499396586981</v>
       </c>
       <c r="L15" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1612980371517101</v>
+        <v>7.1862849939658702</v>
       </c>
       <c r="M15" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N15" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.3">
@@ -1199,7 +1206,7 @@
       </c>
       <c r="F19" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B19,$B$6:$H$15,7,0),M17)</f>
-        <v>117.21853274938003</v>
+        <v>127.65980900540399</v>
       </c>
       <c r="G19">
         <f ca="1">IF(F19&gt;F20,1,0)</f>
@@ -1241,7 +1248,7 @@
       </c>
       <c r="F20" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B20,$B$6:$H$15,7,0),M17)</f>
-        <v>136.01915873863274</v>
+        <v>137.00275866237553</v>
       </c>
       <c r="G20">
         <f ca="1">IF(G19=0,1,0)</f>
@@ -1310,11 +1317,11 @@
       </c>
       <c r="F22" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B22,$B$6:$H$15,7,0),M17)</f>
-        <v>120.02905030981128</v>
+        <v>155.03883791386141</v>
       </c>
       <c r="G22">
         <f ca="1">IF(F22&gt;F23,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="15">
         <v>2</v>
@@ -1352,11 +1359,11 @@
       </c>
       <c r="F23" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B23,$B$6:$H$15,7,0),M17)</f>
-        <v>178.1815438607633</v>
+        <v>126.25742339175198</v>
       </c>
       <c r="G23">
         <f ca="1">IF(G22=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="15">
         <v>2</v>
@@ -1421,7 +1428,7 @@
       </c>
       <c r="F25" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B25,$B$6:$H$15,7,0),M17)</f>
-        <v>171.81407778719623</v>
+        <v>200.31708522921519</v>
       </c>
       <c r="G25">
         <f ca="1">IF(F25&gt;F26,1,0)</f>
@@ -1463,7 +1470,7 @@
       </c>
       <c r="F26" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B26,$B$6:$H$15,7,0),M17)</f>
-        <v>133.2979373985321</v>
+        <v>94.117887345506929</v>
       </c>
       <c r="G26">
         <f ca="1">IF(G25=0,1,0)</f>
@@ -1532,7 +1539,7 @@
       </c>
       <c r="F28" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B28,$B$6:$H$15,7,0),M17)</f>
-        <v>152.59173608917357</v>
+        <v>196.1173205212815</v>
       </c>
       <c r="G28">
         <f ca="1">IF(F28&gt;F29,1,0)</f>
@@ -1574,7 +1581,7 @@
       </c>
       <c r="F29" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B29,$B$6:$H$15,7,0),M17)</f>
-        <v>102.99111326703871</v>
+        <v>185.54092920135761</v>
       </c>
       <c r="G29">
         <f ca="1">IF(G28=0,1,0)</f>
@@ -1643,11 +1650,11 @@
       </c>
       <c r="F31" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B31,$B$6:$H$15,7,0),M17)</f>
-        <v>163.92911408680746</v>
+        <v>134.36362524662022</v>
       </c>
       <c r="G31">
         <f ca="1">IF(F31&gt;F32,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="15">
         <v>3</v>
@@ -1685,11 +1692,11 @@
       </c>
       <c r="F32" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B32,$B$6:$H$15,7,0),M17)</f>
-        <v>148.8279578956332</v>
+        <v>149.4875563743791</v>
       </c>
       <c r="G32">
         <f ca="1">IF(G31=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="15">
         <v>4</v>
@@ -1784,11 +1791,11 @@
       </c>
       <c r="F35" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B35,$B$6:$H$15,7,0),M17)</f>
-        <v>150.11670125113957</v>
+        <v>129.59456334720889</v>
       </c>
       <c r="G35">
         <f ca="1">IF(F35&gt;F36,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="15">
         <v>4</v>
@@ -1826,11 +1833,11 @@
       </c>
       <c r="F36" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B36,$B$6:$H$15,7,0),M17)</f>
-        <v>157.6819104985631</v>
+        <v>104.41768762347145</v>
       </c>
       <c r="G36">
         <f ca="1">IF(G35=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="15">
         <v>4</v>
@@ -1895,7 +1902,7 @@
       </c>
       <c r="F38" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B38,$B$6:$H$15,7,0),M17)</f>
-        <v>146.21527344078046</v>
+        <v>150.71957834877037</v>
       </c>
       <c r="G38">
         <f ca="1">IF(F38&gt;F39,1,0)</f>
@@ -1937,7 +1944,7 @@
       </c>
       <c r="F39" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B39,$B$6:$H$15,7,0),M17)</f>
-        <v>129.11061615397307</v>
+        <v>143.82142169366497</v>
       </c>
       <c r="G39">
         <f ca="1">IF(G38=0,1,0)</f>
@@ -2006,11 +2013,11 @@
       </c>
       <c r="F41" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B41,$B$6:$H$15,7,0),M17)</f>
-        <v>148.22046854010711</v>
+        <v>150.18192630650037</v>
       </c>
       <c r="G41">
         <f ca="1">IF(F41&gt;F42,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" s="15">
         <v>5</v>
@@ -2048,11 +2055,11 @@
       </c>
       <c r="F42" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B42,$B$6:$H$15,7,0),M17)</f>
-        <v>109.76960828177448</v>
+        <v>169.96689558264194</v>
       </c>
       <c r="G42">
         <f ca="1">IF(G41=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="15">
         <v>6</v>
@@ -2109,11 +2116,11 @@
       </c>
       <c r="F44" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B44,$B$6:$H$15,7,0),M17)</f>
-        <v>95.802722715772973</v>
+        <v>171.37888720547244</v>
       </c>
       <c r="G44">
         <f ca="1">IF(F44&gt;F45,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="15">
         <v>6</v>
@@ -2147,11 +2154,11 @@
       </c>
       <c r="F45" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B45,$B$6:$H$15,7,0),M17)</f>
-        <v>115.50813176212638</v>
+        <v>163.82844809275477</v>
       </c>
       <c r="G45">
         <f ca="1">IF(G44=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" s="15">
         <v>6</v>
@@ -2208,11 +2215,11 @@
       </c>
       <c r="F47" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B47,$B$6:$H$15,7,0),M17)</f>
-        <v>136.72745688247699</v>
+        <v>107.59573599930199</v>
       </c>
       <c r="G47">
         <f ca="1">IF(F47&gt;F48,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" s="15">
         <v>7</v>
@@ -2246,11 +2253,11 @@
       </c>
       <c r="F48" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B48,$B$6:$H$15,7,0),M17)</f>
-        <v>108.65956707033651</v>
+        <v>118.59700569333398</v>
       </c>
       <c r="G48">
         <f ca="1">IF(G47=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="15">
         <v>7</v>
@@ -2333,7 +2340,7 @@
       </c>
       <c r="F51" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B51,$B$6:$H$15,7,0),M17)</f>
-        <v>142.91023346910549</v>
+        <v>176.37395752838225</v>
       </c>
       <c r="G51">
         <f ca="1">IF(F51&gt;F52,1,0)</f>
@@ -2371,7 +2378,7 @@
       </c>
       <c r="F52" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B52,$B$6:$H$15,7,0),M17)</f>
-        <v>131.11181705764841</v>
+        <v>121.99916915862396</v>
       </c>
       <c r="G52">
         <f ca="1">IF(G51=0,1,0)</f>
@@ -2432,7 +2439,7 @@
       </c>
       <c r="F54" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B54,$B$6:$H$15,7,0),M17)</f>
-        <v>118.61424193985231</v>
+        <v>146.01646940135598</v>
       </c>
       <c r="G54">
         <f ca="1">IF(F54&gt;F55,1,0)</f>
@@ -2470,7 +2477,7 @@
       </c>
       <c r="F55" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B55,$B$6:$H$15,7,0),M17)</f>
-        <v>190.87834474757017</v>
+        <v>183.41777593047561</v>
       </c>
       <c r="G55">
         <f ca="1">IF(G54=0,1,0)</f>
@@ -2531,7 +2538,7 @@
       </c>
       <c r="F57" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B57,$B$6:$H$15,7,0),M17)</f>
-        <v>220.83490079053473</v>
+        <v>157.03111292557571</v>
       </c>
       <c r="G57">
         <f ca="1">IF(F57&gt;F58,1,0)</f>
@@ -2569,7 +2576,7 @@
       </c>
       <c r="F58" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B58,$B$6:$H$15,7,0),M17)</f>
-        <v>114.03857636594337</v>
+        <v>116.7147437687992</v>
       </c>
       <c r="G58">
         <f ca="1">IF(G57=0,1,0)</f>
@@ -2630,11 +2637,11 @@
       </c>
       <c r="F60" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B60,$B$6:$H$15,7,0),M17)</f>
-        <v>151.85746760783678</v>
+        <v>93.611885755874226</v>
       </c>
       <c r="G60">
         <f ca="1">IF(F60&gt;F61,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" s="15">
         <v>9</v>
@@ -2668,11 +2675,11 @@
       </c>
       <c r="F61" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B61,$B$6:$H$15,7,0),M17)</f>
-        <v>146.20117062639449</v>
+        <v>132.08481237715563</v>
       </c>
       <c r="G61">
         <f ca="1">IF(G60=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" s="15">
         <v>9</v>
@@ -2729,11 +2736,11 @@
       </c>
       <c r="F63" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B63,$B$6:$H$15,7,0),M17)</f>
-        <v>162.06695319997471</v>
+        <v>144.09291230645277</v>
       </c>
       <c r="G63">
         <f ca="1">IF(F63&gt;F64,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P63" s="15">
         <v>10</v>
@@ -2767,11 +2774,11 @@
       </c>
       <c r="F64" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B64,$B$6:$H$15,7,0),M17)</f>
-        <v>155.89689400128836</v>
+        <v>188.63135633092611</v>
       </c>
       <c r="G64">
         <f ca="1">IF(G63=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" s="15">
         <v>10</v>
@@ -2854,7 +2861,7 @@
       </c>
       <c r="F67" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B67,$B$6:$H$15,7,0),M17)</f>
-        <v>120.26327182500555</v>
+        <v>122.05648522205057</v>
       </c>
       <c r="G67">
         <f ca="1">IF(F67&gt;F68,1,0)</f>
@@ -2892,7 +2899,7 @@
       </c>
       <c r="F68" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B68,$B$6:$H$15,7,0),M17)</f>
-        <v>166.67766552006688</v>
+        <v>138.69541424618501</v>
       </c>
       <c r="G68">
         <f ca="1">IF(G67=0,1,0)</f>
@@ -2953,7 +2960,7 @@
       </c>
       <c r="F70" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B70,$B$6:$H$15,7,0),M17)</f>
-        <v>126.63741791573915</v>
+        <v>149.26391036818296</v>
       </c>
       <c r="G70">
         <f ca="1">IF(F70&gt;F71,1,0)</f>
@@ -2991,7 +2998,7 @@
       </c>
       <c r="F71" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B71,$B$6:$H$15,7,0),M17)</f>
-        <v>129.39707003316801</v>
+        <v>159.42022680312093</v>
       </c>
       <c r="G71">
         <f ca="1">IF(G70=0,1,0)</f>
@@ -3052,7 +3059,7 @@
       </c>
       <c r="F73" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B73,$B$6:$H$15,7,0),M17)</f>
-        <v>101.90788895793419</v>
+        <v>154.44214986685228</v>
       </c>
       <c r="G73">
         <f ca="1">IF(F73&gt;F74,1,0)</f>
@@ -3090,7 +3097,7 @@
       </c>
       <c r="F74" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B74,$B$6:$H$15,7,0),M17)</f>
-        <v>135.9523450510564</v>
+        <v>155.72066664551798</v>
       </c>
       <c r="G74">
         <f ca="1">IF(G73=0,1,0)</f>
@@ -3151,11 +3158,11 @@
       </c>
       <c r="F76" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B76,$B$6:$H$15,7,0),M17)</f>
-        <v>166.60464167953967</v>
+        <v>134.85879462924652</v>
       </c>
       <c r="G76">
         <f ca="1">IF(F76&gt;F77,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P76" s="15">
         <v>12</v>
@@ -3189,11 +3196,11 @@
       </c>
       <c r="F77" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B77,$B$6:$H$15,7,0),M17)</f>
-        <v>134.36197766104439</v>
+        <v>153.07268252104774</v>
       </c>
       <c r="G77">
         <f ca="1">IF(G76=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" s="15">
         <v>13</v>
@@ -3250,7 +3257,7 @@
       </c>
       <c r="F79" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B79,$B$6:$H$15,7,0),M17)</f>
-        <v>157.92906639573073</v>
+        <v>169.3934067054376</v>
       </c>
       <c r="G79">
         <f ca="1">IF(F79&gt;F80,1,0)</f>
@@ -3288,7 +3295,7 @@
       </c>
       <c r="F80" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B80,$B$6:$H$15,7,0),M17)</f>
-        <v>138.61085850149627</v>
+        <v>129.50093551514831</v>
       </c>
       <c r="G80">
         <f ca="1">IF(G79=0,1,0)</f>
@@ -3354,11 +3361,11 @@
       </c>
       <c r="F83" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B83,$B$6:$H$15,7,0),M17)</f>
-        <v>112.00926494692722</v>
+        <v>149.74165020299168</v>
       </c>
       <c r="G83">
         <f ca="1">IF(F83&gt;F84,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.3">
@@ -3371,11 +3378,11 @@
       </c>
       <c r="F84" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B84,$B$6:$H$15,7,0),M17)</f>
-        <v>161.49911552528002</v>
+        <v>121.32022343016807</v>
       </c>
       <c r="G84">
         <f ca="1">IF(G83=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:24" x14ac:dyDescent="0.3">
@@ -3388,7 +3395,7 @@
       </c>
       <c r="F86" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B86,$B$6:$H$15,7,0),M17)</f>
-        <v>159.73162499156595</v>
+        <v>141.36138601565202</v>
       </c>
       <c r="G86">
         <f ca="1">IF(F86&gt;F87,1,0)</f>
@@ -3405,7 +3412,7 @@
       </c>
       <c r="F87" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B87,$B$6:$H$15,7,0),M17)</f>
-        <v>94.795996412458265</v>
+        <v>111.54787197739348</v>
       </c>
       <c r="G87">
         <f ca="1">IF(G86=0,1,0)</f>
@@ -3422,11 +3429,11 @@
       </c>
       <c r="F89" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B89,$B$6:$H$15,7,0),M17)</f>
-        <v>179.10656047806606</v>
+        <v>118.48540632772114</v>
       </c>
       <c r="G89">
         <f ca="1">IF(F89&gt;F90,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.3">
@@ -3439,11 +3446,11 @@
       </c>
       <c r="F90" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B90,$B$6:$H$15,7,0),M17)</f>
-        <v>116.14830228498134</v>
+        <v>168.9758799747716</v>
       </c>
       <c r="G90">
         <f ca="1">IF(G89=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="2:24" x14ac:dyDescent="0.3">
@@ -3456,7 +3463,7 @@
       </c>
       <c r="F92" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B92,$B$6:$H$15,7,0),M17)</f>
-        <v>113.81841302671769</v>
+        <v>143.27106552495442</v>
       </c>
       <c r="G92">
         <f ca="1">IF(F92&gt;F93,1,0)</f>
@@ -3473,7 +3480,7 @@
       </c>
       <c r="F93" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B93,$B$6:$H$15,7,0),M17)</f>
-        <v>152.70018913702742</v>
+        <v>168.58466664415539</v>
       </c>
       <c r="G93">
         <f ca="1">IF(G92=0,1,0)</f>
@@ -3490,11 +3497,11 @@
       </c>
       <c r="F95" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B95,$B$6:$H$15,7,0),M17)</f>
-        <v>117.25081068146153</v>
+        <v>167.31687202137064</v>
       </c>
       <c r="G95">
         <f ca="1">IF(F95&gt;F96,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.3">
@@ -3507,11 +3514,11 @@
       </c>
       <c r="F96" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B96,$B$6:$H$15,7,0),M17)</f>
-        <v>155.84811087166173</v>
+        <v>117.95550465112402</v>
       </c>
       <c r="G96">
         <f ca="1">IF(G95=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.3">
@@ -3529,7 +3536,7 @@
       </c>
       <c r="F99" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B99,$B$6:$H$15,7,0),M17)</f>
-        <v>143.64533057056596</v>
+        <v>114.36505167942256</v>
       </c>
       <c r="G99">
         <f ca="1">IF(F99&gt;F100,1,0)</f>
@@ -3546,7 +3553,7 @@
       </c>
       <c r="F100" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B100,$B$6:$H$15,7,0),M17)</f>
-        <v>114.30918711156882</v>
+        <v>101.49559414157247</v>
       </c>
       <c r="G100">
         <f ca="1">IF(G99=0,1,0)</f>
@@ -3563,7 +3570,7 @@
       </c>
       <c r="F102" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B102,$B$6:$H$15,7,0),M17)</f>
-        <v>148.31498057657876</v>
+        <v>107.39776120051914</v>
       </c>
       <c r="G102">
         <f ca="1">IF(F102&gt;F103,1,0)</f>
@@ -3580,7 +3587,7 @@
       </c>
       <c r="F103" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B103,$B$6:$H$15,7,0),M17)</f>
-        <v>159.59042488785968</v>
+        <v>131.99878218460319</v>
       </c>
       <c r="G103">
         <f ca="1">IF(G102=0,1,0)</f>
@@ -3597,7 +3604,7 @@
       </c>
       <c r="F105" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B105,$B$6:$H$15,7,0),M17)</f>
-        <v>131.4559439850662</v>
+        <v>172.28292835533938</v>
       </c>
       <c r="G105">
         <f ca="1">IF(F105&gt;F106,1,0)</f>
@@ -3614,7 +3621,7 @@
       </c>
       <c r="F106" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B106,$B$6:$H$15,7,0),M17)</f>
-        <v>110.19832264373801</v>
+        <v>110.85053695803317</v>
       </c>
       <c r="G106">
         <f ca="1">IF(G105=0,1,0)</f>
@@ -3631,7 +3638,7 @@
       </c>
       <c r="F108" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B108,$B$6:$H$15,7,0),M17)</f>
-        <v>181.71137514311221</v>
+        <v>149.98875928516131</v>
       </c>
       <c r="G108">
         <f ca="1">IF(F108&gt;F109,1,0)</f>
@@ -3648,7 +3655,7 @@
       </c>
       <c r="F109" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B109,$B$6:$H$15,7,0),M17)</f>
-        <v>141.51572248513421</v>
+        <v>133.25371791903129</v>
       </c>
       <c r="G109">
         <f ca="1">IF(G108=0,1,0)</f>
@@ -3665,11 +3672,11 @@
       </c>
       <c r="F111" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B111,$B$6:$H$15,7,0),M17)</f>
-        <v>164.06800977655197</v>
+        <v>118.49267731783307</v>
       </c>
       <c r="G111">
         <f ca="1">IF(F111&gt;F112,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.3">
@@ -3682,11 +3689,11 @@
       </c>
       <c r="F112" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B112,$B$6:$H$15,7,0),M17)</f>
-        <v>125.11687694058524</v>
+        <v>131.64711584907388</v>
       </c>
       <c r="G112">
         <f ca="1">IF(G111=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.3">
@@ -3704,7 +3711,7 @@
       </c>
       <c r="F115" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B115,$B$6:$H$15,7,0),M17)</f>
-        <v>137.42856564656054</v>
+        <v>120.65786107036121</v>
       </c>
       <c r="G115">
         <f ca="1">IF(F115&gt;F116,1,0)</f>
@@ -3721,7 +3728,7 @@
       </c>
       <c r="F116" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B116,$B$6:$H$15,7,0),M17)</f>
-        <v>154.79078891465551</v>
+        <v>137.40258153035364</v>
       </c>
       <c r="G116">
         <f ca="1">IF(G115=0,1,0)</f>
@@ -3738,7 +3745,7 @@
       </c>
       <c r="F118" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B118,$B$6:$H$15,7,0),M17)</f>
-        <v>135.01081434707964</v>
+        <v>147.06029388066463</v>
       </c>
       <c r="G118">
         <f ca="1">IF(F118&gt;F119,1,0)</f>
@@ -3755,7 +3762,7 @@
       </c>
       <c r="F119" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B119,$B$6:$H$15,7,0),M17)</f>
-        <v>173.96052567077328</v>
+        <v>201.5365631408059</v>
       </c>
       <c r="G119">
         <f ca="1">IF(G118=0,1,0)</f>
@@ -3772,11 +3779,11 @@
       </c>
       <c r="F121" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B121,$B$6:$H$15,7,0),M17)</f>
-        <v>178.58299751431403</v>
+        <v>79.355071401209983</v>
       </c>
       <c r="G121">
         <f ca="1">IF(F121&gt;F122,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.3">
@@ -3789,11 +3796,11 @@
       </c>
       <c r="F122" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B122,$B$6:$H$15,7,0),M17)</f>
-        <v>143.16282207261168</v>
+        <v>144.13183725988563</v>
       </c>
       <c r="G122">
         <f ca="1">IF(G121=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.3">
@@ -3806,11 +3813,11 @@
       </c>
       <c r="F124" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B124,$B$6:$H$15,7,0),M17)</f>
-        <v>184.84554743021084</v>
+        <v>115.87206642527033</v>
       </c>
       <c r="G124">
         <f ca="1">IF(F124&gt;F125,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.3">
@@ -3823,11 +3830,11 @@
       </c>
       <c r="F125" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B125,$B$6:$H$15,7,0),M17)</f>
-        <v>105.009577440877</v>
+        <v>122.73058123106119</v>
       </c>
       <c r="G125">
         <f ca="1">IF(G124=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.3">
@@ -3840,7 +3847,7 @@
       </c>
       <c r="F127" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B127,$B$6:$H$15,7,0),M17)</f>
-        <v>105.38081532555341</v>
+        <v>94.998429396790883</v>
       </c>
       <c r="G127">
         <f ca="1">IF(F127&gt;F128,1,0)</f>
@@ -3857,7 +3864,7 @@
       </c>
       <c r="F128" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B128,$B$6:$H$15,7,0),M17)</f>
-        <v>119.60306788571017</v>
+        <v>117.35868993400709</v>
       </c>
       <c r="G128">
         <f ca="1">IF(G127=0,1,0)</f>
@@ -3879,7 +3886,7 @@
       </c>
       <c r="F131" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B131,$B$6:$H$15,7,0),M17)</f>
-        <v>194.0306417963626</v>
+        <v>162.96061560261506</v>
       </c>
       <c r="G131">
         <f ca="1">IF(F131&gt;F132,1,0)</f>
@@ -3896,7 +3903,7 @@
       </c>
       <c r="F132" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B132,$B$6:$H$15,7,0),M17)</f>
-        <v>171.69361933941505</v>
+        <v>149.25013818045218</v>
       </c>
       <c r="G132">
         <f ca="1">IF(G131=0,1,0)</f>
@@ -3913,11 +3920,11 @@
       </c>
       <c r="F134" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B134,$B$6:$H$15,7,0),M17)</f>
-        <v>141.81613297133487</v>
+        <v>144.2387062355738</v>
       </c>
       <c r="G134">
         <f ca="1">IF(F134&gt;F135,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.3">
@@ -3930,11 +3937,11 @@
       </c>
       <c r="F135" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B135,$B$6:$H$15,7,0),M17)</f>
-        <v>127.33009640009162</v>
+        <v>148.9959553155131</v>
       </c>
       <c r="G135">
         <f ca="1">IF(G134=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.3">
@@ -3947,11 +3954,11 @@
       </c>
       <c r="F137" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B137,$B$6:$H$15,7,0),M17)</f>
-        <v>116.4785995404058</v>
+        <v>176.92663411950986</v>
       </c>
       <c r="G137">
         <f ca="1">IF(F137&gt;F138,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.3">
@@ -3964,11 +3971,11 @@
       </c>
       <c r="F138" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B138,$B$6:$H$15,7,0),M17)</f>
-        <v>166.29571181508231</v>
+        <v>136.2107415473067</v>
       </c>
       <c r="G138">
         <f ca="1">IF(G137=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.3">
@@ -3981,7 +3988,7 @@
       </c>
       <c r="F140" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B140,$B$6:$H$15,7,0),M17)</f>
-        <v>146.36208907078108</v>
+        <v>155.96908805325134</v>
       </c>
       <c r="G140">
         <f ca="1">IF(F140&gt;F141,1,0)</f>
@@ -3998,7 +4005,7 @@
       </c>
       <c r="F141" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B141,$B$6:$H$15,7,0),M17)</f>
-        <v>125.69664818898389</v>
+        <v>140.10071983249802</v>
       </c>
       <c r="G141">
         <f ca="1">IF(G140=0,1,0)</f>
@@ -4015,11 +4022,11 @@
       </c>
       <c r="F143" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B143,$B$6:$H$15,7,0),M17)</f>
-        <v>126.40878600520065</v>
+        <v>156.19236517098881</v>
       </c>
       <c r="G143">
         <f ca="1">IF(F143&gt;F144,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.3">
@@ -4032,11 +4039,11 @@
       </c>
       <c r="F144" s="6">
         <f ca="1">NORMINV(RAND(),VLOOKUP(B144,$B$6:$H$15,7,0),M17)</f>
-        <v>137.67731415159562</v>
+        <v>133.91926542490893</v>
       </c>
       <c r="G144">
         <f ca="1">IF(G143=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4049,8 +4056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A04EAEA-2D74-49C3-A6B1-D88D78AE1FDD}">
   <dimension ref="B5:AC70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView topLeftCell="G44" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5:AC70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8065,4 +8072,1144 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC6935F-054C-422C-BFE0-6151F141C10E}">
+  <dimension ref="B3:F68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15">
+        <v>2</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15">
+        <v>3</v>
+      </c>
+      <c r="D5" s="15">
+        <v>4</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15">
+        <v>5</v>
+      </c>
+      <c r="D6" s="15">
+        <v>6</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15">
+        <v>7</v>
+      </c>
+      <c r="D7" s="15">
+        <v>8</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15">
+        <v>9</v>
+      </c>
+      <c r="D8" s="15">
+        <v>10</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="15">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15">
+        <v>5</v>
+      </c>
+      <c r="D9" s="15">
+        <v>3</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="15">
+        <v>2</v>
+      </c>
+      <c r="C10" s="15">
+        <v>2</v>
+      </c>
+      <c r="D10" s="15">
+        <v>7</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="15">
+        <v>2</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15">
+        <v>9</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="15">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15">
+        <v>4</v>
+      </c>
+      <c r="D12" s="15">
+        <v>8</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
+        <v>2</v>
+      </c>
+      <c r="C13" s="15">
+        <v>6</v>
+      </c>
+      <c r="D13" s="15">
+        <v>10</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="15">
+        <v>3</v>
+      </c>
+      <c r="C14" s="15">
+        <v>9</v>
+      </c>
+      <c r="D14" s="15">
+        <v>7</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="15">
+        <v>8</v>
+      </c>
+      <c r="D15" s="15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="15">
+        <v>3</v>
+      </c>
+      <c r="C16" s="15">
+        <v>10</v>
+      </c>
+      <c r="D16" s="15">
+        <v>5</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="15">
+        <v>3</v>
+      </c>
+      <c r="C17" s="15">
+        <v>4</v>
+      </c>
+      <c r="D17" s="15">
+        <v>2</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="15">
+        <v>3</v>
+      </c>
+      <c r="C18" s="15">
+        <v>6</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="15">
+        <v>4</v>
+      </c>
+      <c r="C19" s="15">
+        <v>10</v>
+      </c>
+      <c r="D19" s="15">
+        <v>8</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="15">
+        <v>4</v>
+      </c>
+      <c r="C20" s="15">
+        <v>7</v>
+      </c>
+      <c r="D20" s="15">
+        <v>4</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="15">
+        <v>4</v>
+      </c>
+      <c r="C21" s="15">
+        <v>9</v>
+      </c>
+      <c r="D21" s="15">
+        <v>6</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="15">
+        <v>4</v>
+      </c>
+      <c r="C22" s="15">
+        <v>3</v>
+      </c>
+      <c r="D22" s="15">
+        <v>2</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="15">
+        <v>4</v>
+      </c>
+      <c r="C23" s="15">
+        <v>5</v>
+      </c>
+      <c r="D23" s="15">
+        <v>1</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="15">
+        <v>5</v>
+      </c>
+      <c r="C24" s="15">
+        <v>6</v>
+      </c>
+      <c r="D24" s="15">
+        <v>4</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="15">
+        <v>5</v>
+      </c>
+      <c r="C25" s="15">
+        <v>2</v>
+      </c>
+      <c r="D25" s="15">
+        <v>8</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="15">
+        <v>5</v>
+      </c>
+      <c r="C26" s="15">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15">
+        <v>10</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="15">
+        <v>5</v>
+      </c>
+      <c r="C27" s="15">
+        <v>3</v>
+      </c>
+      <c r="D27" s="15">
+        <v>7</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="15">
+        <v>5</v>
+      </c>
+      <c r="C28" s="15">
+        <v>5</v>
+      </c>
+      <c r="D28" s="15">
+        <v>9</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="15">
+        <v>6</v>
+      </c>
+      <c r="C29" s="15">
+        <v>3</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="15">
+        <v>6</v>
+      </c>
+      <c r="C30" s="15">
+        <v>7</v>
+      </c>
+      <c r="D30" s="15">
+        <v>5</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="15">
+        <v>6</v>
+      </c>
+      <c r="C31" s="15">
+        <v>8</v>
+      </c>
+      <c r="D31" s="15">
+        <v>9</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="15">
+        <v>6</v>
+      </c>
+      <c r="C32" s="15">
+        <v>4</v>
+      </c>
+      <c r="D32" s="15">
+        <v>10</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="15">
+        <v>6</v>
+      </c>
+      <c r="C33" s="15">
+        <v>2</v>
+      </c>
+      <c r="D33" s="15">
+        <v>6</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="15">
+        <v>7</v>
+      </c>
+      <c r="C34" s="15">
+        <v>1</v>
+      </c>
+      <c r="D34" s="15">
+        <v>7</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="15">
+        <v>7</v>
+      </c>
+      <c r="C35" s="15">
+        <v>5</v>
+      </c>
+      <c r="D35" s="15">
+        <v>8</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="15">
+        <v>7</v>
+      </c>
+      <c r="C36" s="15">
+        <v>9</v>
+      </c>
+      <c r="D36" s="15">
+        <v>4</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="15">
+        <v>7</v>
+      </c>
+      <c r="C37" s="15">
+        <v>10</v>
+      </c>
+      <c r="D37" s="15">
+        <v>2</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="15">
+        <v>7</v>
+      </c>
+      <c r="C38" s="15">
+        <v>6</v>
+      </c>
+      <c r="D38" s="15">
+        <v>3</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="15">
+        <v>8</v>
+      </c>
+      <c r="C39" s="15">
+        <v>8</v>
+      </c>
+      <c r="D39" s="15">
+        <v>1</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="15">
+        <v>8</v>
+      </c>
+      <c r="C40" s="15">
+        <v>4</v>
+      </c>
+      <c r="D40" s="15">
+        <v>5</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="15">
+        <v>8</v>
+      </c>
+      <c r="C41" s="15">
+        <v>2</v>
+      </c>
+      <c r="D41" s="15">
+        <v>9</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="15">
+        <v>8</v>
+      </c>
+      <c r="C42" s="15">
+        <v>3</v>
+      </c>
+      <c r="D42" s="15">
+        <v>10</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="15">
+        <v>8</v>
+      </c>
+      <c r="C43" s="15">
+        <v>7</v>
+      </c>
+      <c r="D43" s="15">
+        <v>6</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="15">
+        <v>9</v>
+      </c>
+      <c r="C44" s="15">
+        <v>1</v>
+      </c>
+      <c r="D44" s="15">
+        <v>4</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="15">
+        <v>9</v>
+      </c>
+      <c r="C45" s="15">
+        <v>8</v>
+      </c>
+      <c r="D45" s="15">
+        <v>2</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="15">
+        <v>9</v>
+      </c>
+      <c r="C46" s="15">
+        <v>6</v>
+      </c>
+      <c r="D46" s="15">
+        <v>5</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="15">
+        <v>9</v>
+      </c>
+      <c r="C47" s="15">
+        <v>7</v>
+      </c>
+      <c r="D47" s="15">
+        <v>3</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="15">
+        <v>9</v>
+      </c>
+      <c r="C48" s="15">
+        <v>10</v>
+      </c>
+      <c r="D48" s="15">
+        <v>9</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="15">
+        <v>10</v>
+      </c>
+      <c r="C49" s="15">
+        <v>5</v>
+      </c>
+      <c r="D49" s="15">
+        <v>2</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="15">
+        <v>10</v>
+      </c>
+      <c r="C50" s="15">
+        <v>4</v>
+      </c>
+      <c r="D50" s="15">
+        <v>3</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="15">
+        <v>10</v>
+      </c>
+      <c r="C51" s="15">
+        <v>9</v>
+      </c>
+      <c r="D51" s="15">
+        <v>1</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="15">
+        <v>10</v>
+      </c>
+      <c r="C52" s="15">
+        <v>8</v>
+      </c>
+      <c r="D52" s="15">
+        <v>7</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="15">
+        <v>10</v>
+      </c>
+      <c r="C53" s="15">
+        <v>10</v>
+      </c>
+      <c r="D53" s="15">
+        <v>6</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="15">
+        <v>11</v>
+      </c>
+      <c r="C54" s="15">
+        <v>9</v>
+      </c>
+      <c r="D54" s="15">
+        <v>3</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="15">
+        <v>11</v>
+      </c>
+      <c r="C55" s="15">
+        <v>7</v>
+      </c>
+      <c r="D55" s="15">
+        <v>2</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="15">
+        <v>11</v>
+      </c>
+      <c r="C56" s="15">
+        <v>5</v>
+      </c>
+      <c r="D56" s="15">
+        <v>10</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="15">
+        <v>11</v>
+      </c>
+      <c r="C57" s="15">
+        <v>8</v>
+      </c>
+      <c r="D57" s="15">
+        <v>4</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="15">
+        <v>11</v>
+      </c>
+      <c r="C58" s="15">
+        <v>1</v>
+      </c>
+      <c r="D58" s="15">
+        <v>6</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="15">
+        <v>12</v>
+      </c>
+      <c r="C59" s="15">
+        <v>10</v>
+      </c>
+      <c r="D59" s="15">
+        <v>7</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="15">
+        <v>12</v>
+      </c>
+      <c r="C60" s="15">
+        <v>3</v>
+      </c>
+      <c r="D60" s="15">
+        <v>8</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="15">
+        <v>12</v>
+      </c>
+      <c r="C61" s="15">
+        <v>6</v>
+      </c>
+      <c r="D61" s="15">
+        <v>9</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="15">
+        <v>12</v>
+      </c>
+      <c r="C62" s="15">
+        <v>2</v>
+      </c>
+      <c r="D62" s="15">
+        <v>4</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="15">
+        <v>12</v>
+      </c>
+      <c r="C63" s="15">
+        <v>1</v>
+      </c>
+      <c r="D63" s="15">
+        <v>5</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="15">
+        <v>13</v>
+      </c>
+      <c r="C64" s="15">
+        <v>6</v>
+      </c>
+      <c r="D64" s="15">
+        <v>8</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="15">
+        <v>13</v>
+      </c>
+      <c r="C65" s="15">
+        <v>4</v>
+      </c>
+      <c r="D65" s="15">
+        <v>7</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="15">
+        <v>13</v>
+      </c>
+      <c r="C66" s="15">
+        <v>10</v>
+      </c>
+      <c r="D66" s="15">
+        <v>1</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="15">
+        <v>13</v>
+      </c>
+      <c r="C67" s="15">
+        <v>2</v>
+      </c>
+      <c r="D67" s="15">
+        <v>3</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="15">
+        <v>13</v>
+      </c>
+      <c r="C68" s="15">
+        <v>9</v>
+      </c>
+      <c r="D68" s="15">
+        <v>5</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>